--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_13_22.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_13_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>148794.2970234731</v>
+        <v>141150.2351694429</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3457184.004509153</v>
+        <v>3457184.004509152</v>
       </c>
     </row>
     <row r="11">
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>104.8891084057997</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>119.08391054246</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="U8" t="n">
-        <v>104.8891084057987</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>119.08391054246</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>119.08391054246</v>
+        <v>119.0839105424612</v>
       </c>
     </row>
     <row r="9">
@@ -1223,13 +1223,13 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>82.55</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>84.32851138425291</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>39.36037526809191</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1262,22 +1262,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>59.05530966656963</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>119.08391054246</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>119.08391054246</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="W9" t="n">
-        <v>119.08391054246</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>104.8891084057988</v>
+        <v>77.76273317180768</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>104.8891084057988</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>13.56162857616405</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>119.08391054246</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>119.08391054246</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>119.08391054246</v>
+        <v>91.32747982963572</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>21.9769230597934</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
         <v>267.0243359415286</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>165.1645278651476</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>44.17482029426309</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T12" t="n">
         <v>124.8306395731037</v>
@@ -1530,7 +1530,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>55.96684102370093</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
@@ -1542,13 +1542,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0206200144772</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>62.46433369811442</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1593,7 +1593,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>47.09262707756254</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>97.23891385008126</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>287.4490784864964</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T15" t="n">
         <v>124.8306395731037</v>
@@ -1770,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>113.830956177992</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>131.0206200144772</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>62.46433369811442</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1830,10 +1830,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>155.9224050328147</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -1855,10 +1855,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>259.5526475098957</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1903,16 +1903,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>127.3873593352172</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T18" t="n">
         <v>124.8306395731037</v>
@@ -2010,16 +2010,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7335122538394</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>85.1488807209173</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2083,10 +2083,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735097</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>292.8904073562028</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>109.5540470185014</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T21" t="n">
         <v>124.8306395731037</v>
@@ -2247,13 +2247,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>74.4281100935485</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>49.34995949258749</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
         <v>239.8247518556274</v>
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>26.09603676502709</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>256.4799845637012</v>
@@ -2380,10 +2380,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>264.3476845812658</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
         <v>404.2032624633431</v>
@@ -2478,13 +2478,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>31.66775530976515</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
@@ -2496,7 +2496,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I25" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>170.3034090720322</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
         <v>433.7610480884109</v>
@@ -2569,7 +2569,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>176.1446634785932</v>
+        <v>109.5540470185014</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2718,13 +2718,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>81.30766987963973</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T28" t="n">
         <v>239.8247518556274</v>
@@ -2778,7 +2778,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>128.0685837420154</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>18.98847872300996</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2800,13 +2800,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735099</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>10.65591654817996</v>
       </c>
       <c r="X29" t="n">
         <v>414.9510387864824</v>
@@ -2952,16 +2952,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>63.62546569681869</v>
       </c>
       <c r="G31" t="n">
         <v>163.0937685836068</v>
@@ -2970,7 +2970,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U31" t="n">
         <v>275.6027656317444</v>
@@ -3015,7 +3015,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>11.31461330144417</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T32" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>109.5540470185009</v>
       </c>
       <c r="Y32" t="n">
-        <v>253.5999082581252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3192,22 +3192,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.0937685836068</v>
+        <v>11.96377639543406</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T34" t="n">
         <v>239.8247518556274</v>
@@ -3246,10 +3246,10 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>81.94411774374035</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>328.5107569703947</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.06170608735099</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T35" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>109.5540470185009</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3426,10 +3426,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>8.234866164334582</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3444,7 +3444,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3486,13 +3486,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>122.959202683614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3514,10 +3514,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>283.7483537432606</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3562,13 +3562,13 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
-        <v>315.17234332221</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3666,7 +3666,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3675,13 +3675,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.0937685836068</v>
+        <v>49.34995949258573</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,10 +3714,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U40" t="n">
-        <v>43.97954181326713</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3754,10 +3754,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>176.1446634785934</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>109.5540470185009</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0206200144773</v>
+        <v>49.34995949258573</v>
       </c>
       <c r="I43" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>239.8247518556274</v>
@@ -3960,10 +3960,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>60.90749728818702</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -3991,7 +3991,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>361.9987888703321</v>
+        <v>109.554047018501</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>40.06170608735101</v>
       </c>
       <c r="T44" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4073,7 +4073,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H45" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306972</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4140,10 +4140,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>125.3259356522787</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
@@ -4155,7 +4155,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,13 +4188,13 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U46" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4203,7 +4203,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>14.75918992024017</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>129.813491169114</v>
+        <v>235.762085518408</v>
       </c>
       <c r="C8" t="n">
-        <v>129.813491169114</v>
+        <v>129.8134911691153</v>
       </c>
       <c r="D8" t="n">
-        <v>129.813491169114</v>
+        <v>129.8134911691153</v>
       </c>
       <c r="E8" t="n">
-        <v>129.813491169114</v>
+        <v>129.8134911691153</v>
       </c>
       <c r="F8" t="n">
-        <v>9.526712843396799</v>
+        <v>9.526712843396895</v>
       </c>
       <c r="G8" t="n">
-        <v>9.526712843396799</v>
+        <v>9.526712843396895</v>
       </c>
       <c r="H8" t="n">
-        <v>9.526712843396799</v>
+        <v>9.526712843396895</v>
       </c>
       <c r="I8" t="n">
-        <v>23.57954741585563</v>
+        <v>23.57954741585565</v>
       </c>
       <c r="J8" t="n">
-        <v>55.41632306557998</v>
+        <v>55.41632306558035</v>
       </c>
       <c r="K8" t="n">
-        <v>103.1313969318063</v>
+        <v>103.1313969318071</v>
       </c>
       <c r="L8" t="n">
-        <v>162.3261653183083</v>
+        <v>162.3261653183098</v>
       </c>
       <c r="M8" t="n">
-        <v>228.1917507590914</v>
+        <v>228.1917507590935</v>
       </c>
       <c r="N8" t="n">
-        <v>295.1231102326558</v>
+        <v>295.1231102326586</v>
       </c>
       <c r="O8" t="n">
-        <v>358.3244950336396</v>
+        <v>358.324495033643</v>
       </c>
       <c r="P8" t="n">
-        <v>412.2654147455637</v>
+        <v>412.2654147455677</v>
       </c>
       <c r="Q8" t="n">
-        <v>452.7727990244977</v>
+        <v>452.7727990245021</v>
       </c>
       <c r="R8" t="n">
-        <v>476.33564216984</v>
+        <v>476.3356421698447</v>
       </c>
       <c r="S8" t="n">
-        <v>476.33564216984</v>
+        <v>476.3356421698447</v>
       </c>
       <c r="T8" t="n">
-        <v>476.33564216984</v>
+        <v>356.0488638441263</v>
       </c>
       <c r="U8" t="n">
-        <v>370.3870478205483</v>
+        <v>356.0488638441263</v>
       </c>
       <c r="V8" t="n">
-        <v>370.3870478205483</v>
+        <v>356.0488638441263</v>
       </c>
       <c r="W8" t="n">
-        <v>250.1002694948311</v>
+        <v>356.0488638441263</v>
       </c>
       <c r="X8" t="n">
-        <v>250.1002694948311</v>
+        <v>356.0488638441263</v>
       </c>
       <c r="Y8" t="n">
-        <v>129.813491169114</v>
+        <v>235.762085518408</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9.526712843396799</v>
+        <v>217.8488205730382</v>
       </c>
       <c r="C9" t="n">
-        <v>9.526712843396799</v>
+        <v>217.8488205730382</v>
       </c>
       <c r="D9" t="n">
-        <v>9.526712843396799</v>
+        <v>217.8488205730382</v>
       </c>
       <c r="E9" t="n">
-        <v>9.526712843396799</v>
+        <v>217.8488205730382</v>
       </c>
       <c r="F9" t="n">
-        <v>9.526712843396799</v>
+        <v>134.4649821891998</v>
       </c>
       <c r="G9" t="n">
-        <v>9.526712843396799</v>
+        <v>49.28466765965135</v>
       </c>
       <c r="H9" t="n">
-        <v>9.526712843396799</v>
+        <v>9.526712843396895</v>
       </c>
       <c r="I9" t="n">
-        <v>16.4367847511467</v>
+        <v>16.43678475114687</v>
       </c>
       <c r="J9" t="n">
-        <v>67.70899752367886</v>
+        <v>67.7089975236795</v>
       </c>
       <c r="K9" t="n">
-        <v>100.1176749029946</v>
+        <v>100.1176749029955</v>
       </c>
       <c r="L9" t="n">
-        <v>143.6951411186836</v>
+        <v>143.695141118685</v>
       </c>
       <c r="M9" t="n">
-        <v>194.5479887760991</v>
+        <v>194.547988776101</v>
       </c>
       <c r="N9" t="n">
-        <v>246.7467599936355</v>
+        <v>246.746759993638</v>
       </c>
       <c r="O9" t="n">
-        <v>294.4984377999679</v>
+        <v>294.4984377999708</v>
       </c>
       <c r="P9" t="n">
-        <v>332.8233691018297</v>
+        <v>332.823369101833</v>
       </c>
       <c r="Q9" t="n">
-        <v>358.4425707328045</v>
+        <v>358.4425707328082</v>
       </c>
       <c r="R9" t="n">
-        <v>476.33564216984</v>
+        <v>476.3356421698447</v>
       </c>
       <c r="S9" t="n">
-        <v>476.33564216984</v>
+        <v>416.6838142238148</v>
       </c>
       <c r="T9" t="n">
-        <v>476.33564216984</v>
+        <v>416.6838142238148</v>
       </c>
       <c r="U9" t="n">
-        <v>356.0488638441228</v>
+        <v>416.6838142238148</v>
       </c>
       <c r="V9" t="n">
-        <v>235.7620855184057</v>
+        <v>296.3970358980964</v>
       </c>
       <c r="W9" t="n">
-        <v>115.4753071926885</v>
+        <v>296.3970358980964</v>
       </c>
       <c r="X9" t="n">
-        <v>9.526712843396799</v>
+        <v>217.8488205730382</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.526712843396799</v>
+        <v>217.8488205730382</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>115.4753071926885</v>
+        <v>129.8134911691153</v>
       </c>
       <c r="C10" t="n">
-        <v>115.4753071926885</v>
+        <v>9.526712843396895</v>
       </c>
       <c r="D10" t="n">
-        <v>115.4753071926885</v>
+        <v>9.526712843396895</v>
       </c>
       <c r="E10" t="n">
-        <v>115.4753071926885</v>
+        <v>9.526712843396895</v>
       </c>
       <c r="F10" t="n">
-        <v>9.526712843396799</v>
+        <v>9.526712843396895</v>
       </c>
       <c r="G10" t="n">
-        <v>9.526712843396799</v>
+        <v>9.526712843396895</v>
       </c>
       <c r="H10" t="n">
-        <v>9.526712843396799</v>
+        <v>9.526712843396895</v>
       </c>
       <c r="I10" t="n">
-        <v>9.526712843396799</v>
+        <v>9.526712843396895</v>
       </c>
       <c r="J10" t="n">
-        <v>108.0024003011148</v>
+        <v>108.002400301115</v>
       </c>
       <c r="K10" t="n">
-        <v>225.8954717381502</v>
+        <v>139.626979135116</v>
       </c>
       <c r="L10" t="n">
-        <v>250.9111875026072</v>
+        <v>164.6426948995733</v>
       </c>
       <c r="M10" t="n">
-        <v>288.5610142512576</v>
+        <v>191.0182597110283</v>
       </c>
       <c r="N10" t="n">
-        <v>314.3094270837821</v>
+        <v>216.7666725435531</v>
       </c>
       <c r="O10" t="n">
-        <v>338.0922538360003</v>
+        <v>240.5494992957716</v>
       </c>
       <c r="P10" t="n">
-        <v>358.4425707328045</v>
+        <v>358.4425707328082</v>
       </c>
       <c r="Q10" t="n">
-        <v>476.33564216984</v>
+        <v>476.3356421698447</v>
       </c>
       <c r="R10" t="n">
-        <v>476.33564216984</v>
+        <v>462.6370274464467</v>
       </c>
       <c r="S10" t="n">
-        <v>476.33564216984</v>
+        <v>462.6370274464467</v>
       </c>
       <c r="T10" t="n">
-        <v>356.0488638441228</v>
+        <v>342.3502491207283</v>
       </c>
       <c r="U10" t="n">
-        <v>356.0488638441228</v>
+        <v>222.0634707950099</v>
       </c>
       <c r="V10" t="n">
-        <v>356.0488638441228</v>
+        <v>222.0634707950099</v>
       </c>
       <c r="W10" t="n">
-        <v>356.0488638441228</v>
+        <v>222.0634707950099</v>
       </c>
       <c r="X10" t="n">
-        <v>235.7620855184057</v>
+        <v>222.0634707950099</v>
       </c>
       <c r="Y10" t="n">
-        <v>115.4753071926885</v>
+        <v>129.8134911691153</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>339.1270151866538</v>
+        <v>1152.340579151123</v>
       </c>
       <c r="C11" t="n">
-        <v>339.1270151866538</v>
+        <v>1152.340579151123</v>
       </c>
       <c r="D11" t="n">
-        <v>339.1270151866538</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E11" t="n">
-        <v>339.1270151866538</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F11" t="n">
-        <v>339.1270151866538</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G11" t="n">
         <v>316.9281030050443</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895476</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867027</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M11" t="n">
         <v>1131.58869045549</v>
@@ -5059,34 +5059,34 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P11" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q11" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R11" t="n">
-        <v>2360.327577447738</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447738</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T11" t="n">
-        <v>2360.327577447738</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U11" t="n">
-        <v>2360.327577447738</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V11" t="n">
-        <v>1997.710627381564</v>
+        <v>1745.473006065472</v>
       </c>
       <c r="W11" t="n">
-        <v>1592.855172792598</v>
+        <v>1745.473006065472</v>
       </c>
       <c r="X11" t="n">
-        <v>1173.712709371908</v>
+        <v>1578.64014963603</v>
       </c>
       <c r="Y11" t="n">
-        <v>765.4265856715616</v>
+        <v>1578.64014963603</v>
       </c>
     </row>
     <row r="12">
@@ -5099,43 +5099,43 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C12" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D12" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E12" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F12" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895476</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043089</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J12" t="n">
-        <v>175.3166270668972</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K12" t="n">
-        <v>335.7952991210674</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L12" t="n">
-        <v>551.5786779960899</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M12" t="n">
-        <v>803.3877032987875</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N12" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O12" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P12" t="n">
         <v>1488.088567599445</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1092.291841223631</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="C13" t="n">
-        <v>919.7301297068562</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D13" t="n">
-        <v>753.852136908379</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E13" t="n">
-        <v>584.0941331591162</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F13" t="n">
-        <v>407.3870791208724</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G13" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H13" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895476</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J13" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K13" t="n">
-        <v>202.9123158186962</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L13" t="n">
-        <v>481.9462364092385</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M13" t="n">
-        <v>1066.127311827554</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N13" t="n">
-        <v>1635.885026789088</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O13" t="n">
-        <v>2173.320157362631</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P13" t="n">
-        <v>2274.089213540315</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q13" t="n">
-        <v>2343.85648477097</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R13" t="n">
-        <v>2360.327577447738</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S13" t="n">
-        <v>2360.327577447738</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T13" t="n">
-        <v>2118.080353351144</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U13" t="n">
-        <v>2118.080353351144</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V13" t="n">
-        <v>1831.124845221575</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W13" t="n">
-        <v>1559.098440807866</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X13" t="n">
-        <v>1511.53013062851</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y13" t="n">
-        <v>1284.110459942618</v>
+        <v>807.9003835041287</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>765.4265856715616</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="C14" t="n">
-        <v>765.4265856715616</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="D14" t="n">
-        <v>765.4265856715616</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="E14" t="n">
-        <v>765.4265856715616</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F14" t="n">
-        <v>337.5591560807694</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G14" t="n">
-        <v>47.20655154895476</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895476</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435809</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K14" t="n">
         <v>512.3249274228019</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867027</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M14" t="n">
         <v>1131.58869045549</v>
       </c>
       <c r="N14" t="n">
-        <v>1463.013992431968</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O14" t="n">
-        <v>1775.969506973261</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P14" t="n">
-        <v>2043.06979815253</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q14" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R14" t="n">
-        <v>2360.327577447738</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447738</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447738</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U14" t="n">
-        <v>2360.327577447738</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="V14" t="n">
-        <v>1997.710627381564</v>
+        <v>1785.939375850675</v>
       </c>
       <c r="W14" t="n">
-        <v>1592.855172792598</v>
+        <v>1381.083921261709</v>
       </c>
       <c r="X14" t="n">
-        <v>1173.712709371908</v>
+        <v>1381.083921261709</v>
       </c>
       <c r="Y14" t="n">
-        <v>765.4265856715616</v>
+        <v>972.797797561362</v>
       </c>
     </row>
     <row r="15">
@@ -5336,43 +5336,43 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C15" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E15" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G15" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895476</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I15" t="n">
-        <v>81.4232877204301</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J15" t="n">
-        <v>175.3166270668973</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K15" t="n">
-        <v>335.7952991210676</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L15" t="n">
-        <v>551.5786779960901</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M15" t="n">
-        <v>803.3877032987875</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N15" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O15" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P15" t="n">
         <v>1488.088567599445</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>699.0748969752697</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="C16" t="n">
-        <v>699.0748969752697</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D16" t="n">
-        <v>699.0748969752697</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E16" t="n">
-        <v>584.0941331591162</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F16" t="n">
-        <v>407.3870791208724</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G16" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H16" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895476</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J16" t="n">
         <v>106.1122152511379</v>
       </c>
       <c r="K16" t="n">
-        <v>202.9123158186962</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L16" t="n">
-        <v>744.9929992049551</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M16" t="n">
-        <v>875.5973915434847</v>
+        <v>875.5973915434845</v>
       </c>
       <c r="N16" t="n">
         <v>1445.355106505019</v>
       </c>
       <c r="O16" t="n">
-        <v>1825.813263392289</v>
+        <v>1982.790237078562</v>
       </c>
       <c r="P16" t="n">
-        <v>2274.089213540315</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q16" t="n">
-        <v>2343.85648477097</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.327577447738</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S16" t="n">
-        <v>2215.901038951973</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T16" t="n">
-        <v>1973.653814855379</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U16" t="n">
-        <v>1695.267182904122</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V16" t="n">
-        <v>1408.311674774553</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W16" t="n">
-        <v>1136.285270360844</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X16" t="n">
-        <v>890.8935156942568</v>
+        <v>978.7878915398176</v>
       </c>
       <c r="Y16" t="n">
-        <v>890.8935156942568</v>
+        <v>751.3682208539258</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1578.568163960875</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C17" t="n">
-        <v>1578.568163960875</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D17" t="n">
-        <v>1142.65837913532</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E17" t="n">
-        <v>708.8836342936147</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F17" t="n">
-        <v>446.7092428694776</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G17" t="n">
-        <v>47.20655154895476</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895476</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I17" t="n">
         <v>118.4065018001357</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435814</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228024</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867032</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M17" t="n">
         <v>1131.58869045549</v>
       </c>
       <c r="N17" t="n">
-        <v>1463.013992431968</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O17" t="n">
-        <v>1775.969506973261</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P17" t="n">
-        <v>2043.06979815253</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q17" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R17" t="n">
-        <v>2360.327577447738</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447738</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T17" t="n">
-        <v>2360.327577447738</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U17" t="n">
-        <v>2360.327577447738</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V17" t="n">
-        <v>1997.710627381564</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W17" t="n">
-        <v>1997.710627381564</v>
+        <v>2191.18710732393</v>
       </c>
       <c r="X17" t="n">
-        <v>1578.568163960875</v>
+        <v>2191.18710732393</v>
       </c>
       <c r="Y17" t="n">
-        <v>1578.568163960875</v>
+        <v>1782.900983623584</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>542.5713050663915</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C18" t="n">
-        <v>436.1148439030337</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D18" t="n">
-        <v>341.024555049587</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E18" t="n">
-        <v>246.9041403765407</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F18" t="n">
-        <v>163.5203019927023</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G18" t="n">
-        <v>79.14920158235896</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895476</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043081</v>
+        <v>81.42328772043091</v>
       </c>
       <c r="J18" t="n">
         <v>175.316627066898</v>
@@ -5600,10 +5600,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L18" t="n">
-        <v>551.5786779960907</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M18" t="n">
-        <v>803.3877032987882</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N18" t="n">
         <v>1061.861364220108</v>
@@ -5615,31 +5615,31 @@
         <v>1488.088567599445</v>
       </c>
       <c r="Q18" t="n">
-        <v>1614.94766180768</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R18" t="n">
-        <v>1676.651116233593</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S18" t="n">
-        <v>1632.030085633327</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T18" t="n">
-        <v>1505.93853050898</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U18" t="n">
-        <v>1329.668693332861</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V18" t="n">
-        <v>1130.55117539486</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W18" t="n">
-        <v>945.2284211280539</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X18" t="n">
-        <v>790.3609853669338</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y18" t="n">
-        <v>663.8752061461546</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>894.4683967363999</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="C19" t="n">
-        <v>721.9066852196248</v>
+        <v>299.0935147726011</v>
       </c>
       <c r="D19" t="n">
-        <v>556.0286924211475</v>
+        <v>133.2155219741237</v>
       </c>
       <c r="E19" t="n">
-        <v>386.2706886718848</v>
+        <v>133.2155219741237</v>
       </c>
       <c r="F19" t="n">
-        <v>209.563634633641</v>
+        <v>133.2155219741237</v>
       </c>
       <c r="G19" t="n">
-        <v>47.20655154895476</v>
+        <v>133.2155219741237</v>
       </c>
       <c r="H19" t="n">
-        <v>47.20655154895476</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I19" t="n">
-        <v>47.20655154895476</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J19" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K19" t="n">
-        <v>564.2504555545215</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L19" t="n">
-        <v>688.1212571728196</v>
+        <v>481.9462364092375</v>
       </c>
       <c r="M19" t="n">
-        <v>818.725649511349</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N19" t="n">
-        <v>1120.185357954414</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O19" t="n">
-        <v>1657.620488527957</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P19" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q19" t="n">
-        <v>2343.85648477097</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R19" t="n">
-        <v>2360.327577447738</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S19" t="n">
-        <v>2360.327577447738</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T19" t="n">
-        <v>2118.080353351144</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U19" t="n">
-        <v>2118.080353351144</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V19" t="n">
-        <v>1831.124845221575</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W19" t="n">
-        <v>1559.098440807866</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X19" t="n">
-        <v>1313.706686141279</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y19" t="n">
-        <v>1086.287015455387</v>
+        <v>663.4738450083632</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1178.570277437541</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C20" t="n">
-        <v>1178.570277437541</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D20" t="n">
-        <v>1178.570277437541</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E20" t="n">
-        <v>744.7955325958366</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F20" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G20" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895476</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L20" t="n">
         <v>805.4408022867026</v>
@@ -5770,34 +5770,34 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P20" t="n">
-        <v>2043.06979815253</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q20" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R20" t="n">
-        <v>2360.327577447738</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S20" t="n">
-        <v>2319.861207662535</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T20" t="n">
-        <v>2319.861207662535</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U20" t="n">
-        <v>2319.861207662535</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V20" t="n">
-        <v>2319.861207662535</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W20" t="n">
-        <v>2024.012311343138</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="X20" t="n">
-        <v>1604.869847922449</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="Y20" t="n">
-        <v>1604.869847922449</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1226.247766280537</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>1119.791305117179</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D21" t="n">
-        <v>1024.701016263733</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E21" t="n">
-        <v>930.5806015906862</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F21" t="n">
-        <v>847.1967632068479</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G21" t="n">
-        <v>762.8256627965047</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H21" t="n">
-        <v>730.883012763101</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I21" t="n">
-        <v>765.0997489345759</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J21" t="n">
-        <v>858.993088281043</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K21" t="n">
-        <v>1019.471760335213</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L21" t="n">
-        <v>1235.255139210236</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M21" t="n">
-        <v>1487.064164512933</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N21" t="n">
-        <v>1745.537825434253</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O21" t="n">
-        <v>1981.990728248784</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P21" t="n">
-        <v>2171.76502881359</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q21" t="n">
-        <v>2298.624123021825</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R21" t="n">
-        <v>2360.327577447738</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S21" t="n">
-        <v>2315.706546847472</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T21" t="n">
-        <v>2189.614991723125</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U21" t="n">
-        <v>2013.345154547006</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V21" t="n">
-        <v>1814.227636609005</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W21" t="n">
-        <v>1628.904882342199</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X21" t="n">
-        <v>1474.037446581079</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y21" t="n">
-        <v>1347.5516673603</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>616.0817647851429</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="C22" t="n">
-        <v>443.5200532683679</v>
+        <v>299.0935147726011</v>
       </c>
       <c r="D22" t="n">
-        <v>443.5200532683679</v>
+        <v>299.0935147726011</v>
       </c>
       <c r="E22" t="n">
-        <v>273.7620495191051</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F22" t="n">
-        <v>97.05499548086132</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G22" t="n">
-        <v>47.20655154895476</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H22" t="n">
-        <v>47.20655154895476</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895476</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J22" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K22" t="n">
-        <v>202.9123158186962</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L22" t="n">
-        <v>326.7831174369941</v>
+        <v>481.9462364092379</v>
       </c>
       <c r="M22" t="n">
-        <v>910.9641928553092</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N22" t="n">
-        <v>1480.721907816843</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O22" t="n">
-        <v>2018.157038390387</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P22" t="n">
-        <v>2274.089213540315</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q22" t="n">
-        <v>2343.85648477097</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R22" t="n">
-        <v>2360.327577447738</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S22" t="n">
-        <v>2360.327577447738</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T22" t="n">
-        <v>2118.080353351144</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U22" t="n">
-        <v>1839.693721399887</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V22" t="n">
-        <v>1552.738213270318</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W22" t="n">
-        <v>1280.711808856609</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X22" t="n">
-        <v>1035.320054190022</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y22" t="n">
-        <v>807.9003835041301</v>
+        <v>663.4738450083632</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>446.7092428694776</v>
+        <v>884.8517156860543</v>
       </c>
       <c r="C23" t="n">
         <v>446.7092428694776</v>
@@ -5980,61 +5980,61 @@
         <v>446.7092428694776</v>
       </c>
       <c r="G23" t="n">
-        <v>47.20655154895476</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H23" t="n">
-        <v>47.20655154895476</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I23" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J23" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K23" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L23" t="n">
-        <v>805.4408022867034</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M23" t="n">
         <v>1131.58869045549</v>
       </c>
       <c r="N23" t="n">
-        <v>1463.013992431968</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O23" t="n">
-        <v>1775.969506973261</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P23" t="n">
-        <v>2043.06979815253</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q23" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R23" t="n">
-        <v>2360.327577447738</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S23" t="n">
-        <v>2360.327577447738</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T23" t="n">
-        <v>2148.55632591685</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U23" t="n">
-        <v>1889.485634438364</v>
+        <v>2101.256885969251</v>
       </c>
       <c r="V23" t="n">
-        <v>1526.868684372191</v>
+        <v>1738.639935903077</v>
       </c>
       <c r="W23" t="n">
-        <v>1122.013229783224</v>
+        <v>1738.639935903077</v>
       </c>
       <c r="X23" t="n">
-        <v>854.9953665698242</v>
+        <v>1319.497472482388</v>
       </c>
       <c r="Y23" t="n">
-        <v>446.7092428694776</v>
+        <v>911.2113487820412</v>
       </c>
     </row>
     <row r="24">
@@ -6047,43 +6047,43 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C24" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D24" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E24" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F24" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G24" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H24" t="n">
-        <v>47.20655154895476</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I24" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043101</v>
       </c>
       <c r="J24" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K24" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L24" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M24" t="n">
-        <v>803.3877032987879</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N24" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O24" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P24" t="n">
         <v>1488.088567599445</v>
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1092.291841223631</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="C25" t="n">
-        <v>919.7301297068562</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="D25" t="n">
-        <v>753.852136908379</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="E25" t="n">
         <v>584.0941331591162</v>
@@ -6144,55 +6144,55 @@
         <v>110.3018381127067</v>
       </c>
       <c r="I25" t="n">
-        <v>47.20655154895476</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J25" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K25" t="n">
         <v>202.912315818696</v>
       </c>
       <c r="L25" t="n">
-        <v>481.9462364092387</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M25" t="n">
-        <v>1066.127311827554</v>
+        <v>910.9641928553087</v>
       </c>
       <c r="N25" t="n">
-        <v>1635.885026789088</v>
+        <v>1480.721907816843</v>
       </c>
       <c r="O25" t="n">
-        <v>2173.320157362631</v>
+        <v>2018.157038390386</v>
       </c>
       <c r="P25" t="n">
-        <v>2274.089213540315</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q25" t="n">
-        <v>2343.85648477097</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R25" t="n">
-        <v>2360.327577447738</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S25" t="n">
-        <v>2215.901038951973</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T25" t="n">
-        <v>2043.877393424667</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U25" t="n">
-        <v>2043.877393424667</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V25" t="n">
-        <v>1756.921885295098</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W25" t="n">
-        <v>1756.921885295098</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X25" t="n">
-        <v>1511.53013062851</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y25" t="n">
-        <v>1284.110459942618</v>
+        <v>807.9003835041287</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2182.403674944107</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C26" t="n">
-        <v>1744.26120212753</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D26" t="n">
-        <v>1308.351417301975</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E26" t="n">
-        <v>874.5766724602698</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F26" t="n">
-        <v>446.7092428694776</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G26" t="n">
         <v>47.20655154895473</v>
@@ -6223,25 +6223,25 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I26" t="n">
-        <v>118.4065018001352</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J26" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435807</v>
       </c>
       <c r="K26" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L26" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M26" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N26" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O26" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P26" t="n">
         <v>2043.069798152528</v>
@@ -6253,25 +6253,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S26" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T26" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U26" t="n">
-        <v>2182.403674944107</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="V26" t="n">
-        <v>2182.403674944107</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="W26" t="n">
-        <v>2182.403674944107</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="X26" t="n">
-        <v>2182.403674944107</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="Y26" t="n">
-        <v>2182.403674944107</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="27">
@@ -6284,7 +6284,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C27" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D27" t="n">
         <v>341.0245550495863</v>
@@ -6296,7 +6296,7 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G27" t="n">
-        <v>79.14920158235847</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H27" t="n">
         <v>47.20655154895473</v>
@@ -6308,10 +6308,10 @@
         <v>175.316627066898</v>
       </c>
       <c r="K27" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210684</v>
       </c>
       <c r="L27" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M27" t="n">
         <v>803.3877032987879</v>
@@ -6320,7 +6320,7 @@
         <v>1061.861364220108</v>
       </c>
       <c r="O27" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P27" t="n">
         <v>1488.088567599445</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>732.1113136517137</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="C28" t="n">
-        <v>559.5496021349386</v>
+        <v>299.0935147726011</v>
       </c>
       <c r="D28" t="n">
-        <v>393.6716093364613</v>
+        <v>299.0935147726011</v>
       </c>
       <c r="E28" t="n">
-        <v>223.9136055871985</v>
+        <v>129.3355110233383</v>
       </c>
       <c r="F28" t="n">
         <v>47.20655154895473</v>
@@ -6384,25 +6384,25 @@
         <v>47.20655154895473</v>
       </c>
       <c r="J28" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K28" t="n">
-        <v>564.2504555545214</v>
+        <v>477.6707703898316</v>
       </c>
       <c r="L28" t="n">
-        <v>1106.33113894078</v>
+        <v>601.5415720081295</v>
       </c>
       <c r="M28" t="n">
-        <v>1236.93553127931</v>
+        <v>1185.722647426444</v>
       </c>
       <c r="N28" t="n">
-        <v>1364.434443083199</v>
+        <v>1755.480362387979</v>
       </c>
       <c r="O28" t="n">
-        <v>1657.620488527956</v>
+        <v>1873.24624373574</v>
       </c>
       <c r="P28" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q28" t="n">
         <v>2343.856484770969</v>
@@ -6411,25 +6411,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S28" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T28" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U28" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V28" t="n">
-        <v>1552.738213270316</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W28" t="n">
-        <v>1280.711808856608</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X28" t="n">
-        <v>1151.349603056593</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y28" t="n">
-        <v>923.9299323707007</v>
+        <v>663.4738450083632</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>446.7092428694776</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="C29" t="n">
-        <v>446.7092428694776</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="D29" t="n">
-        <v>446.7092428694776</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="E29" t="n">
-        <v>446.7092428694776</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="F29" t="n">
-        <v>446.7092428694776</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G29" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H29" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I29" t="n">
         <v>118.4065018001353</v>
@@ -6487,28 +6487,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R29" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S29" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T29" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U29" t="n">
-        <v>2060.790516184048</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V29" t="n">
-        <v>1698.173566117874</v>
+        <v>1745.473006065472</v>
       </c>
       <c r="W29" t="n">
-        <v>1293.318111528907</v>
+        <v>1734.709453996603</v>
       </c>
       <c r="X29" t="n">
-        <v>874.1756481082181</v>
+        <v>1315.566990575914</v>
       </c>
       <c r="Y29" t="n">
-        <v>465.8895244078715</v>
+        <v>907.2808668755674</v>
       </c>
     </row>
     <row r="30">
@@ -6536,16 +6536,16 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H30" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I30" t="n">
-        <v>81.42328772043091</v>
+        <v>81.42328772043101</v>
       </c>
       <c r="J30" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K30" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L30" t="n">
         <v>551.5786779960906</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1092.291841223631</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="C31" t="n">
-        <v>919.7301297068562</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="D31" t="n">
-        <v>753.852136908379</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="E31" t="n">
-        <v>584.0941331591162</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="F31" t="n">
         <v>407.3870791208724</v>
@@ -6618,25 +6618,25 @@
         <v>110.3018381127067</v>
       </c>
       <c r="I31" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J31" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K31" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L31" t="n">
-        <v>935.5229194890228</v>
+        <v>744.9929992049549</v>
       </c>
       <c r="M31" t="n">
-        <v>1066.127311827552</v>
+        <v>875.5973915434844</v>
       </c>
       <c r="N31" t="n">
-        <v>1635.885026789086</v>
+        <v>1445.355106505019</v>
       </c>
       <c r="O31" t="n">
-        <v>2173.32015736263</v>
+        <v>1982.790237078562</v>
       </c>
       <c r="P31" t="n">
         <v>2274.089213540313</v>
@@ -6645,28 +6645,28 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R31" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S31" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T31" t="n">
-        <v>2360.327577447737</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U31" t="n">
-        <v>2081.940945496479</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V31" t="n">
-        <v>1794.98543736691</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W31" t="n">
-        <v>1522.959032953201</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X31" t="n">
-        <v>1511.53013062851</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y31" t="n">
-        <v>1284.110459942618</v>
+        <v>663.4738450083632</v>
       </c>
     </row>
     <row r="32">
@@ -6676,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>446.7092428694776</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C32" t="n">
-        <v>446.7092428694776</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D32" t="n">
-        <v>446.7092428694776</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E32" t="n">
-        <v>446.7092428694776</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F32" t="n">
-        <v>446.7092428694776</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G32" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H32" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I32" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J32" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K32" t="n">
         <v>512.3249274228015</v>
@@ -6724,28 +6724,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R32" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S32" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T32" t="n">
-        <v>2148.556325916849</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U32" t="n">
-        <v>1889.485634438363</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="V32" t="n">
-        <v>1526.868684372189</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="W32" t="n">
-        <v>1122.013229783223</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="X32" t="n">
-        <v>702.8707663625333</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="Y32" t="n">
-        <v>446.7092428694776</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="33">
@@ -6773,7 +6773,7 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H33" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I33" t="n">
         <v>81.42328772043084</v>
@@ -6782,22 +6782,22 @@
         <v>175.316627066898</v>
       </c>
       <c r="K33" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L33" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M33" t="n">
-        <v>803.3877032987879</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N33" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O33" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P33" t="n">
-        <v>1488.088567599445</v>
+        <v>1488.088567599444</v>
       </c>
       <c r="Q33" t="n">
         <v>1614.947661807679</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1092.291841223631</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="C34" t="n">
-        <v>919.7301297068562</v>
+        <v>299.0935147726011</v>
       </c>
       <c r="D34" t="n">
-        <v>753.852136908379</v>
+        <v>299.0935147726011</v>
       </c>
       <c r="E34" t="n">
-        <v>584.0941331591162</v>
+        <v>299.0935147726011</v>
       </c>
       <c r="F34" t="n">
-        <v>407.3870791208724</v>
+        <v>122.3864607343573</v>
       </c>
       <c r="G34" t="n">
-        <v>242.6458987333908</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H34" t="n">
         <v>110.3018381127067</v>
       </c>
       <c r="I34" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J34" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K34" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L34" t="n">
-        <v>862.0820538119935</v>
+        <v>326.7831174369939</v>
       </c>
       <c r="M34" t="n">
-        <v>992.686446150523</v>
+        <v>910.9641928553085</v>
       </c>
       <c r="N34" t="n">
-        <v>1120.185357954412</v>
+        <v>1480.721907816843</v>
       </c>
       <c r="O34" t="n">
-        <v>1657.620488527956</v>
+        <v>2018.157038390386</v>
       </c>
       <c r="P34" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q34" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R34" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S34" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T34" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U34" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V34" t="n">
-        <v>1839.693721399886</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W34" t="n">
-        <v>1756.921885295098</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X34" t="n">
-        <v>1511.53013062851</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y34" t="n">
-        <v>1284.110459942618</v>
+        <v>663.4738450083632</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1486.402314586987</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C35" t="n">
-        <v>1048.25984177041</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D35" t="n">
-        <v>1048.25984177041</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E35" t="n">
-        <v>1048.25984177041</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F35" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G35" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H35" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867021</v>
       </c>
       <c r="M35" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N35" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O35" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P35" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q35" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R35" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S35" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T35" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U35" t="n">
-        <v>1849.01926465316</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="V35" t="n">
-        <v>1486.402314586987</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="W35" t="n">
-        <v>1486.402314586987</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="X35" t="n">
-        <v>1486.402314586987</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="Y35" t="n">
-        <v>1486.402314586987</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="36">
@@ -6995,46 +6995,46 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C36" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D36" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E36" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F36" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G36" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H36" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I36" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J36" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K36" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L36" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M36" t="n">
-        <v>803.3877032987879</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N36" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O36" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P36" t="n">
-        <v>1488.088567599445</v>
+        <v>1488.088567599444</v>
       </c>
       <c r="Q36" t="n">
         <v>1614.947661807679</v>
@@ -7071,58 +7071,58 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1092.291841223631</v>
+        <v>699.0748969752678</v>
       </c>
       <c r="C37" t="n">
-        <v>919.7301297068562</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="D37" t="n">
-        <v>753.852136908379</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="E37" t="n">
-        <v>584.0941331591162</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F37" t="n">
-        <v>407.3870791208724</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G37" t="n">
-        <v>242.6458987333908</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H37" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I37" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J37" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K37" t="n">
-        <v>289.4920009833859</v>
+        <v>477.6707703898316</v>
       </c>
       <c r="L37" t="n">
-        <v>481.9462364092383</v>
+        <v>1019.75145377609</v>
       </c>
       <c r="M37" t="n">
-        <v>1066.127311827553</v>
+        <v>1150.35584611462</v>
       </c>
       <c r="N37" t="n">
-        <v>1635.885026789087</v>
+        <v>1288.378132818744</v>
       </c>
       <c r="O37" t="n">
-        <v>2173.32015736263</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P37" t="n">
-        <v>2274.089213540314</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q37" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R37" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S37" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T37" t="n">
         <v>1973.653814855378</v>
@@ -7131,16 +7131,16 @@
         <v>1695.267182904121</v>
       </c>
       <c r="V37" t="n">
-        <v>1408.311674774552</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W37" t="n">
-        <v>1408.311674774552</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X37" t="n">
-        <v>1408.311674774552</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y37" t="n">
-        <v>1284.110459942618</v>
+        <v>890.893515694255</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1782.900983623584</v>
+        <v>1641.648052763358</v>
       </c>
       <c r="C38" t="n">
-        <v>1344.758510807007</v>
+        <v>1203.505579946781</v>
       </c>
       <c r="D38" t="n">
-        <v>908.8487259814518</v>
+        <v>767.5957951212258</v>
       </c>
       <c r="E38" t="n">
-        <v>475.073981139747</v>
+        <v>333.821050279521</v>
       </c>
       <c r="F38" t="n">
-        <v>47.20655154895473</v>
+        <v>333.821050279521</v>
       </c>
       <c r="G38" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H38" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I38" t="n">
         <v>118.4065018001353</v>
@@ -7180,7 +7180,7 @@
         <v>512.3249274228015</v>
       </c>
       <c r="L38" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867021</v>
       </c>
       <c r="M38" t="n">
         <v>1131.588690455489</v>
@@ -7198,28 +7198,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R38" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S38" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T38" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U38" t="n">
-        <v>2101.256885969251</v>
+        <v>2060.790516184047</v>
       </c>
       <c r="V38" t="n">
-        <v>1782.900983623584</v>
+        <v>2060.790516184047</v>
       </c>
       <c r="W38" t="n">
-        <v>1782.900983623584</v>
+        <v>2060.790516184047</v>
       </c>
       <c r="X38" t="n">
-        <v>1782.900983623584</v>
+        <v>1641.648052763358</v>
       </c>
       <c r="Y38" t="n">
-        <v>1782.900983623584</v>
+        <v>1641.648052763358</v>
       </c>
     </row>
     <row r="39">
@@ -7247,7 +7247,7 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H39" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I39" t="n">
         <v>81.42328772043084</v>
@@ -7256,22 +7256,22 @@
         <v>175.316627066898</v>
       </c>
       <c r="K39" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L39" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M39" t="n">
-        <v>803.3877032987879</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N39" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O39" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P39" t="n">
-        <v>1488.088567599445</v>
+        <v>1488.088567599444</v>
       </c>
       <c r="Q39" t="n">
         <v>1614.947661807679</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1092.291841223631</v>
+        <v>616.0817647851411</v>
       </c>
       <c r="C40" t="n">
-        <v>919.7301297068562</v>
+        <v>443.520053268366</v>
       </c>
       <c r="D40" t="n">
-        <v>753.852136908379</v>
+        <v>443.520053268366</v>
       </c>
       <c r="E40" t="n">
-        <v>584.0941331591162</v>
+        <v>273.7620495191033</v>
       </c>
       <c r="F40" t="n">
-        <v>407.3870791208724</v>
+        <v>97.0549954808595</v>
       </c>
       <c r="G40" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H40" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I40" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J40" t="n">
         <v>192.6919004158277</v>
@@ -7356,28 +7356,28 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R40" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S40" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T40" t="n">
-        <v>2360.327577447737</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U40" t="n">
-        <v>2315.903797838376</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V40" t="n">
-        <v>2028.948289708806</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W40" t="n">
-        <v>1756.921885295098</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X40" t="n">
-        <v>1511.53013062851</v>
+        <v>1035.32005419002</v>
       </c>
       <c r="Y40" t="n">
-        <v>1284.110459942618</v>
+        <v>807.9003835041283</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2360.327577447737</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C41" t="n">
-        <v>1922.18510463116</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D41" t="n">
-        <v>1486.275319805604</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E41" t="n">
-        <v>1052.500574963899</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F41" t="n">
-        <v>624.6331453731073</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G41" t="n">
-        <v>225.1304540525844</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H41" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I41" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L41" t="n">
         <v>805.440802286702</v>
@@ -7435,28 +7435,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R41" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S41" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T41" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U41" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="V41" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="W41" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="X41" t="n">
-        <v>2360.327577447737</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="Y41" t="n">
-        <v>2360.327577447737</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1226.247766280535</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C42" t="n">
-        <v>1119.791305117177</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D42" t="n">
-        <v>1024.701016263731</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E42" t="n">
-        <v>930.5806015906844</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F42" t="n">
-        <v>847.1967632068461</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G42" t="n">
-        <v>762.8256627965029</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H42" t="n">
-        <v>730.8830127630991</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I42" t="n">
-        <v>765.0997489345752</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J42" t="n">
-        <v>858.9930882810423</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K42" t="n">
-        <v>1019.471760335213</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L42" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M42" t="n">
-        <v>1487.064164512932</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N42" t="n">
-        <v>1745.537825434252</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O42" t="n">
-        <v>1981.990728248783</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P42" t="n">
-        <v>2171.765028813589</v>
+        <v>1488.088567599444</v>
       </c>
       <c r="Q42" t="n">
-        <v>2298.624123021823</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R42" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S42" t="n">
-        <v>2315.706546847471</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T42" t="n">
-        <v>2189.614991723123</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U42" t="n">
-        <v>2013.345154547004</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V42" t="n">
-        <v>1814.227636609004</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W42" t="n">
-        <v>1628.904882342198</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X42" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y42" t="n">
-        <v>1347.551667360298</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>927.5506608361497</v>
+        <v>616.0817647851411</v>
       </c>
       <c r="C43" t="n">
-        <v>754.9889493193747</v>
+        <v>443.520053268366</v>
       </c>
       <c r="D43" t="n">
-        <v>589.1109565208974</v>
+        <v>443.520053268366</v>
       </c>
       <c r="E43" t="n">
-        <v>419.3529527716346</v>
+        <v>273.7620495191033</v>
       </c>
       <c r="F43" t="n">
-        <v>242.6458987333908</v>
+        <v>97.0549954808595</v>
       </c>
       <c r="G43" t="n">
-        <v>242.6458987333908</v>
+        <v>97.0549954808595</v>
       </c>
       <c r="H43" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I43" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J43" t="n">
         <v>192.6919004158277</v>
@@ -7575,16 +7575,16 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L43" t="n">
-        <v>733.4227107706873</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M43" t="n">
-        <v>1317.603786189002</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N43" t="n">
-        <v>1887.361501150536</v>
+        <v>1539.854607180194</v>
       </c>
       <c r="O43" t="n">
-        <v>2005.127382498298</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P43" t="n">
         <v>2105.896438675981</v>
@@ -7593,28 +7593,28 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R43" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S43" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T43" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U43" t="n">
-        <v>1695.267182904121</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V43" t="n">
-        <v>1408.311674774551</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W43" t="n">
-        <v>1408.311674774551</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X43" t="n">
-        <v>1346.788950241029</v>
+        <v>1035.32005419002</v>
       </c>
       <c r="Y43" t="n">
-        <v>1119.369279555137</v>
+        <v>807.9003835041283</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2148.556325916849</v>
+        <v>1893.561637177625</v>
       </c>
       <c r="C44" t="n">
-        <v>1710.413853100272</v>
+        <v>1455.419164361049</v>
       </c>
       <c r="D44" t="n">
-        <v>1274.504068274717</v>
+        <v>1019.509379535493</v>
       </c>
       <c r="E44" t="n">
-        <v>840.7293234330118</v>
+        <v>585.7346346937884</v>
       </c>
       <c r="F44" t="n">
-        <v>412.8618938422196</v>
+        <v>157.8672051029961</v>
       </c>
       <c r="G44" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I44" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L44" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M44" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N44" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O44" t="n">
         <v>1775.969506973259</v>
@@ -7672,28 +7672,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R44" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S44" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T44" t="n">
-        <v>2148.556325916849</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U44" t="n">
-        <v>2148.556325916849</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="V44" t="n">
-        <v>2148.556325916849</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="W44" t="n">
-        <v>2148.556325916849</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="X44" t="n">
-        <v>2148.556325916849</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="Y44" t="n">
-        <v>2148.556325916849</v>
+        <v>2319.861207662533</v>
       </c>
     </row>
     <row r="45">
@@ -7721,22 +7721,22 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H45" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I45" t="n">
-        <v>81.42328772043091</v>
+        <v>81.42328772043082</v>
       </c>
       <c r="J45" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668979</v>
       </c>
       <c r="K45" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210689</v>
       </c>
       <c r="L45" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960912</v>
       </c>
       <c r="M45" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987884</v>
       </c>
       <c r="N45" t="n">
         <v>1061.861364220108</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.413848425154</v>
+        <v>986.0304051048374</v>
       </c>
       <c r="C46" t="n">
-        <v>753.852136908379</v>
+        <v>813.4686935880624</v>
       </c>
       <c r="D46" t="n">
-        <v>753.852136908379</v>
+        <v>647.5907007895851</v>
       </c>
       <c r="E46" t="n">
-        <v>584.0941331591162</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F46" t="n">
-        <v>407.3870791208724</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G46" t="n">
-        <v>242.6458987333908</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H46" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J46" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K46" t="n">
-        <v>289.4920009833859</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L46" t="n">
-        <v>481.9462364092379</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M46" t="n">
-        <v>1066.127311827553</v>
+        <v>818.7256495113487</v>
       </c>
       <c r="N46" t="n">
-        <v>1635.885026789087</v>
+        <v>1120.185357954412</v>
       </c>
       <c r="O46" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P46" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q46" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R46" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S46" t="n">
         <v>2215.901038951971</v>
       </c>
       <c r="T46" t="n">
-        <v>2215.901038951971</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U46" t="n">
-        <v>1937.514407000714</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V46" t="n">
-        <v>1650.558898871144</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="W46" t="n">
-        <v>1378.532494457436</v>
+        <v>1423.240778490412</v>
       </c>
       <c r="X46" t="n">
-        <v>1133.140739790848</v>
+        <v>1177.849023823825</v>
       </c>
       <c r="Y46" t="n">
-        <v>1118.232467144141</v>
+        <v>1177.849023823825</v>
       </c>
     </row>
   </sheetData>
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>32.63681545384249</v>
+        <v>32.63681545384276</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>106.4970253946626</v>
+        <v>106.4970253946636</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8613,13 +8613,13 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>99.33766198190271</v>
+        <v>12.19777046368591</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>11.38814337090463</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -8628,10 +8628,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>98.52803488912338</v>
       </c>
       <c r="Q10" t="n">
-        <v>104.8520877340646</v>
+        <v>104.8520877340656</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>156.7304232042872</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>458.1582657371572</v>
+        <v>177.1920849464598</v>
       </c>
       <c r="N13" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9099,10 +9099,10 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>265.3457328681905</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
-        <v>351.0170646165068</v>
+        <v>192.4544649334021</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>156.7304232042864</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N19" t="n">
-        <v>175.717976403207</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9564,10 +9564,10 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>156.7304232042869</v>
       </c>
       <c r="M22" t="n">
-        <v>458.1582657371572</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
@@ -9576,7 +9576,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
-        <v>156.7304232042873</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -9801,10 +9801,10 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>156.7304232042876</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>458.1582657371573</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
@@ -9813,7 +9813,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>156.730423204287</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>177.1920849464598</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>351.0170646165068</v>
+        <v>303.1049632594843</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10269,13 +10269,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>249.9006690062662</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -10287,7 +10287,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>192.4544649334016</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>175.7179764032063</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
-        <v>351.0170646165068</v>
+        <v>156.7304232042861</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10743,25 +10743,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>69.2761957652065</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>446.7260637956006</v>
+        <v>10.62967161639904</v>
       </c>
       <c r="O37" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -10995,7 +10995,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>177.1920849464592</v>
+        <v>177.1920849464593</v>
       </c>
       <c r="P40" t="n">
         <v>351.0170646165068</v>
@@ -11223,19 +11223,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>45.75904403825052</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>458.1582657371569</v>
+        <v>177.1920849464593</v>
       </c>
       <c r="N43" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
         <v>169.8916917821538</v>
@@ -11457,25 +11457,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>69.27619576520621</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>458.1582657371569</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>446.7260637956006</v>
+        <v>175.7179764032063</v>
       </c>
       <c r="O46" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23023,7 +23023,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>328.8719396826112</v>
       </c>
       <c r="D8" t="n">
         <v>431.5506869772999</v>
@@ -23032,7 +23032,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>304.5048447524243</v>
+        <v>304.5048447524231</v>
       </c>
       <c r="G8" t="n">
         <v>397.0049566522158</v>
@@ -23071,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>74.1812531179678</v>
+        <v>74.18125311796771</v>
       </c>
       <c r="T8" t="n">
-        <v>216.2079358176206</v>
+        <v>97.1240252751594</v>
       </c>
       <c r="U8" t="n">
-        <v>151.7106595374943</v>
+        <v>256.599767943293</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>281.722989500617</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>285.1193519208831</v>
+        <v>285.1193519208819</v>
       </c>
     </row>
     <row r="9">
@@ -23111,13 +23111,13 @@
         <v>93.17921052631581</v>
       </c>
       <c r="F9" t="n">
-        <v>82.55</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>84.32851138425291</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>39.36037526809193</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -23150,22 +23150,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>59.05530966656967</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>128.0597233353587</v>
       </c>
       <c r="U9" t="n">
-        <v>55.47593365518816</v>
+        <v>174.5598441976481</v>
       </c>
       <c r="V9" t="n">
-        <v>78.04243221616065</v>
+        <v>78.04243221615945</v>
       </c>
       <c r="W9" t="n">
-        <v>64.38561618167793</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X9" t="n">
-        <v>48.42965299771004</v>
+        <v>75.55602823170112</v>
       </c>
       <c r="Y9" t="n">
         <v>125.2209214285714</v>
@@ -23181,7 +23181,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>51.75218385914613</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -23190,7 +23190,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>70.05087509206257</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>163.7654023385416</v>
@@ -23199,7 +23199,7 @@
         <v>136.9920546719889</v>
       </c>
       <c r="I10" t="n">
-        <v>82.66219243742795</v>
+        <v>82.66219243742789</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,16 +23226,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>13.56162857616412</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>154.6870177308997</v>
       </c>
       <c r="T10" t="n">
-        <v>123.6105491751618</v>
+        <v>123.6105491751606</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6394002001954</v>
+        <v>156.5554896577342</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -23244,10 +23244,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>123.8539265774617</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>106.0615634365728</v>
+        <v>133.8179941493971</v>
       </c>
     </row>
     <row r="11">
@@ -23263,7 +23263,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -23272,7 +23272,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>373.5307413475242</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735096</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>256.4799845637012</v>
@@ -23320,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>249.7865109213348</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>114.8692533779064</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>195.8452100423591</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>324.7976609299774</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -23509,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>108.0585859208212</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>267.0243359415286</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735097</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T14" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>256.4799845637012</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>54.22946753377815</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>87.01543208710692</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23734,7 +23734,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23743,10 +23743,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>164.0361077849886</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
         <v>267.0243359415286</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>209.6535390155789</v>
@@ -23791,16 +23791,16 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>273.4195407078598</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>2.360256329767399</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
-        <v>131.0206200144772</v>
+        <v>45.87173929355995</v>
       </c>
       <c r="I19" t="n">
-        <v>62.46433369811442</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23971,10 +23971,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24031,10 +24031,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>107.9164926868742</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>305.396991767981</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -24135,19 +24135,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>93.63231361822162</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>113.7438090910193</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0206200144772</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
-        <v>62.46433369811442</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>395.9405380150316</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>431.5506869772999</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735099</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24268,10 +24268,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>150.6033542052166</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24366,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>136.392668402005</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24414,19 +24414,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T25" t="n">
-        <v>69.52134278359524</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24457,7 +24457,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
         <v>267.0243359415286</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>80.33532108510798</v>
+        <v>146.9259375451998</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>93.6323136182216</v>
       </c>
       <c r="G28" t="n">
         <v>163.0937685836068</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>114.8692533779063</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>403.0480960570487</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>433.7610480884109</v>
@@ -24688,13 +24688,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
         <v>267.0243359415286</v>
@@ -24733,16 +24733,16 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>390.150983494897</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24840,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>111.3145178010427</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>231.6232238184775</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24916,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
         <v>267.0243359415286</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>305.3969917679815</v>
       </c>
       <c r="Y32" t="n">
-        <v>150.6033542052179</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>151.1299921881727</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,10 +25134,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>187.362022625831</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>95.07799832448967</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25207,16 +25207,16 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>291.2528530245761</v>
       </c>
       <c r="X35" t="n">
         <v>414.9510387864824</v>
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>162.6012282372727</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>102.1862712954188</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -25402,10 +25402,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>395.5076644073176</v>
+        <v>111.759310664057</v>
       </c>
       <c r="H38" t="n">
         <v>267.0243359415286</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>209.6535390155789</v>
@@ -25450,13 +25450,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>43.81843724330173</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>113.743809091021</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,10 +25602,10 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>231.6232238184773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25642,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
-        <v>90.87967246293529</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>209.6535390155789</v>
@@ -25693,7 +25693,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>305.3969917679815</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>81.67066052189153</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>182.0303398317346</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>33.50887553698546</v>
+        <v>285.9536173888166</v>
       </c>
       <c r="H44" t="n">
         <v>267.0243359415286</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
         <v>256.4799845637012</v>
@@ -26028,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>42.73448805949143</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,13 +26076,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>210.3862840587926</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>87546.27658292785</v>
+        <v>87546.27658292875</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>389101.2511872107</v>
+        <v>389101.2511872105</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>389101.2511872107</v>
+        <v>389101.2511872104</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>389101.2511872107</v>
+        <v>389101.2511872105</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>389101.2511872107</v>
+        <v>389101.2511872105</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>389101.2511872107</v>
+        <v>389101.2511872105</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>389101.2511872106</v>
+        <v>389101.2511872104</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>389101.2511872106</v>
+        <v>389101.2511872105</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>389101.2511872106</v>
+        <v>389101.2511872105</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>389101.2511872105</v>
+        <v>389101.2511872104</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>389101.2511872105</v>
+        <v>389101.2511872104</v>
       </c>
     </row>
   </sheetData>
@@ -26319,22 +26319,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>38163.29078646929</v>
+        <v>38163.29078646969</v>
       </c>
       <c r="E2" t="n">
-        <v>173027.3284308991</v>
+        <v>173027.328430899</v>
       </c>
       <c r="F2" t="n">
-        <v>173027.3284308991</v>
+        <v>173027.328430899</v>
       </c>
       <c r="G2" t="n">
         <v>173027.3284308991</v>
       </c>
       <c r="H2" t="n">
-        <v>173027.3284308991</v>
+        <v>173027.328430899</v>
       </c>
       <c r="I2" t="n">
-        <v>173027.3284308992</v>
+        <v>173027.328430899</v>
       </c>
       <c r="J2" t="n">
         <v>173027.328430899</v>
@@ -26349,7 +26349,7 @@
         <v>173027.328430899</v>
       </c>
       <c r="N2" t="n">
-        <v>173027.3284308991</v>
+        <v>173027.328430899</v>
       </c>
       <c r="O2" t="n">
         <v>173027.328430899</v>
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>117708.467573057</v>
+        <v>117708.4675730581</v>
       </c>
       <c r="E3" t="n">
-        <v>439858.2450180454</v>
+        <v>439858.2450180439</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>30139.06600310174</v>
+        <v>30139.06600310205</v>
       </c>
       <c r="M3" t="n">
-        <v>117374.5815597483</v>
+        <v>117374.5815597479</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,25 +26423,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4384.178660451892</v>
+        <v>4384.178660451936</v>
       </c>
       <c r="E4" t="n">
-        <v>12054.84944074258</v>
+        <v>12054.84944074259</v>
       </c>
       <c r="F4" t="n">
         <v>12054.84944074259</v>
       </c>
       <c r="G4" t="n">
-        <v>12054.8494407426</v>
+        <v>12054.84944074259</v>
       </c>
       <c r="H4" t="n">
-        <v>12054.84944074258</v>
+        <v>12054.84944074259</v>
       </c>
       <c r="I4" t="n">
-        <v>12054.84944074264</v>
+        <v>12054.84944074259</v>
       </c>
       <c r="J4" t="n">
-        <v>12054.8494407426</v>
+        <v>12054.84944074259</v>
       </c>
       <c r="K4" t="n">
         <v>12054.84944074259</v>
@@ -26450,13 +26450,13 @@
         <v>12054.84944074259</v>
       </c>
       <c r="M4" t="n">
-        <v>12054.8494407426</v>
+        <v>12054.84944074259</v>
       </c>
       <c r="N4" t="n">
         <v>12054.84944074259</v>
       </c>
       <c r="O4" t="n">
-        <v>12054.8494407426</v>
+        <v>12054.84944074259</v>
       </c>
       <c r="P4" t="n">
         <v>12054.84944074259</v>
@@ -26475,22 +26475,22 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>42922.56227239229</v>
+        <v>42922.56227239239</v>
       </c>
       <c r="E5" t="n">
-        <v>46051.08120963784</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="F5" t="n">
-        <v>46051.08120963784</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="G5" t="n">
-        <v>46051.08120963784</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="H5" t="n">
-        <v>46051.08120963784</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="I5" t="n">
-        <v>46051.08120963784</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="J5" t="n">
         <v>46051.08120963781</v>
@@ -26502,7 +26502,7 @@
         <v>46051.08120963781</v>
       </c>
       <c r="M5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="N5" t="n">
         <v>46051.08120963781</v>
@@ -26511,7 +26511,7 @@
         <v>46051.08120963781</v>
       </c>
       <c r="P5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.0812096378</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-126851.9177194318</v>
+        <v>-128018.8165155839</v>
       </c>
       <c r="E6" t="n">
-        <v>-324936.8472375268</v>
+        <v>-325490.7276807473</v>
       </c>
       <c r="F6" t="n">
-        <v>114921.3977805187</v>
+        <v>114367.5173372966</v>
       </c>
       <c r="G6" t="n">
-        <v>114921.3977805187</v>
+        <v>114367.5173372968</v>
       </c>
       <c r="H6" t="n">
-        <v>114921.3977805187</v>
+        <v>114367.5173372967</v>
       </c>
       <c r="I6" t="n">
-        <v>114921.3977805187</v>
+        <v>114367.5173372967</v>
       </c>
       <c r="J6" t="n">
-        <v>114921.3977805186</v>
+        <v>114367.5173372967</v>
       </c>
       <c r="K6" t="n">
-        <v>114921.3977805186</v>
+        <v>114367.5173372967</v>
       </c>
       <c r="L6" t="n">
-        <v>84782.33177741691</v>
+        <v>84228.45133419463</v>
       </c>
       <c r="M6" t="n">
-        <v>-2453.183779229723</v>
+        <v>-3007.064222451258</v>
       </c>
       <c r="N6" t="n">
-        <v>114921.3977805187</v>
+        <v>114367.5173372966</v>
       </c>
       <c r="O6" t="n">
-        <v>114921.3977805186</v>
+        <v>114367.5173372967</v>
       </c>
       <c r="P6" t="n">
-        <v>114921.3977805186</v>
+        <v>114367.5173372967</v>
       </c>
     </row>
   </sheetData>
@@ -26743,19 +26743,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>94.25048217480401</v>
+        <v>94.25048217480497</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932215</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="F3" t="n">
-        <v>466.7019280932214</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="G3" t="n">
-        <v>466.7019280932213</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="H3" t="n">
-        <v>466.7019280932213</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="I3" t="n">
         <v>466.7019280932211</v>
@@ -26779,7 +26779,7 @@
         <v>466.7019280932211</v>
       </c>
       <c r="P3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.701928093221</v>
       </c>
     </row>
     <row r="4">
@@ -26795,43 +26795,43 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>119.08391054246</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619345</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="F4" t="n">
-        <v>590.0818943619345</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="G4" t="n">
-        <v>590.0818943619345</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="H4" t="n">
-        <v>590.0818943619345</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="I4" t="n">
-        <v>590.0818943619345</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="J4" t="n">
         <v>590.0818943619341</v>
       </c>
       <c r="K4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="L4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="O4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="P4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
     </row>
   </sheetData>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>94.25048217480401</v>
+        <v>94.25048217480497</v>
       </c>
       <c r="E3" t="n">
-        <v>372.4514459184175</v>
+        <v>372.4514459184161</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>119.08391054246</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="E4" t="n">
-        <v>470.9979838194745</v>
+        <v>470.9979838194729</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>119.08391054246</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="M4" t="n">
-        <v>470.9979838194746</v>
+        <v>470.9979838194729</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>119.08391054246</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="M4" t="n">
-        <v>470.9979838194745</v>
+        <v>470.9979838194729</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3788964107529806</v>
+        <v>0.3788964107529845</v>
       </c>
       <c r="H8" t="n">
-        <v>3.880372866623964</v>
+        <v>3.880372866624004</v>
       </c>
       <c r="I8" t="n">
-        <v>14.6074038755543</v>
+        <v>14.60740387555445</v>
       </c>
       <c r="J8" t="n">
-        <v>32.15835924214582</v>
+        <v>32.15835924214615</v>
       </c>
       <c r="K8" t="n">
-        <v>48.1970443093195</v>
+        <v>48.19704430931999</v>
       </c>
       <c r="L8" t="n">
-        <v>59.79269533990104</v>
+        <v>59.79269533990166</v>
       </c>
       <c r="M8" t="n">
-        <v>66.53089438462936</v>
+        <v>66.53089438463005</v>
       </c>
       <c r="N8" t="n">
-        <v>67.60743381168128</v>
+        <v>67.60743381168197</v>
       </c>
       <c r="O8" t="n">
-        <v>63.83978262725632</v>
+        <v>63.83978262725697</v>
       </c>
       <c r="P8" t="n">
-        <v>54.4857774867921</v>
+        <v>54.48577748679266</v>
       </c>
       <c r="Q8" t="n">
-        <v>40.91654977670097</v>
+        <v>40.91654977670139</v>
       </c>
       <c r="R8" t="n">
-        <v>23.80085166196194</v>
+        <v>23.80085166196218</v>
       </c>
       <c r="S8" t="n">
-        <v>8.634101960033554</v>
+        <v>8.634101960033643</v>
       </c>
       <c r="T8" t="n">
-        <v>1.658619038071174</v>
+        <v>1.658619038071191</v>
       </c>
       <c r="U8" t="n">
-        <v>0.03031171286023844</v>
+        <v>0.03031171286023876</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2027274522250501</v>
+        <v>0.2027274522250522</v>
       </c>
       <c r="H9" t="n">
-        <v>1.957920393857721</v>
+        <v>1.957920393857741</v>
       </c>
       <c r="I9" t="n">
-        <v>6.979870613888789</v>
+        <v>6.97987061388886</v>
       </c>
       <c r="J9" t="n">
-        <v>19.15329845780617</v>
+        <v>19.15329845780636</v>
       </c>
       <c r="K9" t="n">
-        <v>32.73603775688452</v>
+        <v>32.73603775688485</v>
       </c>
       <c r="L9" t="n">
-        <v>44.01764264211012</v>
+        <v>44.01764264211057</v>
       </c>
       <c r="M9" t="n">
-        <v>51.36651278526818</v>
+        <v>51.3665127852687</v>
       </c>
       <c r="N9" t="n">
-        <v>52.72603153286512</v>
+        <v>52.72603153286566</v>
       </c>
       <c r="O9" t="n">
-        <v>48.23401798619427</v>
+        <v>48.23401798619476</v>
       </c>
       <c r="P9" t="n">
-        <v>38.71205182006243</v>
+        <v>38.71205182006283</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.87798144542921</v>
+        <v>25.87798144542947</v>
       </c>
       <c r="R9" t="n">
-        <v>12.58688514779742</v>
+        <v>12.58688514779755</v>
       </c>
       <c r="S9" t="n">
-        <v>3.765573509531082</v>
+        <v>3.765573509531121</v>
       </c>
       <c r="T9" t="n">
-        <v>0.8171338973457062</v>
+        <v>0.8171338973457145</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01333733238322699</v>
+        <v>0.01333733238322712</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1699598858889908</v>
+        <v>0.1699598858889926</v>
       </c>
       <c r="H10" t="n">
-        <v>1.511097894540301</v>
+        <v>1.511097894540317</v>
       </c>
       <c r="I10" t="n">
-        <v>5.111157295643471</v>
+        <v>5.111157295643523</v>
       </c>
       <c r="J10" t="n">
-        <v>12.01616393235165</v>
+        <v>12.01616393235177</v>
       </c>
       <c r="K10" t="n">
-        <v>19.74624856055729</v>
+        <v>19.74624856055749</v>
       </c>
       <c r="L10" t="n">
-        <v>25.26839976207778</v>
+        <v>25.26839976207804</v>
       </c>
       <c r="M10" t="n">
-        <v>26.64198465803517</v>
+        <v>26.64198465803544</v>
       </c>
       <c r="N10" t="n">
-        <v>26.00849781063077</v>
+        <v>26.00849781063103</v>
       </c>
       <c r="O10" t="n">
-        <v>24.023057325473</v>
+        <v>24.02305732547325</v>
       </c>
       <c r="P10" t="n">
-        <v>20.55587565333757</v>
+        <v>20.55587565333778</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.23182280839541</v>
+        <v>14.23182280839555</v>
       </c>
       <c r="R10" t="n">
-        <v>7.642014505517713</v>
+        <v>7.642014505517791</v>
       </c>
       <c r="S10" t="n">
-        <v>2.961937284083593</v>
+        <v>2.961937284083624</v>
       </c>
       <c r="T10" t="n">
-        <v>0.726192239707506</v>
+        <v>0.7261922397075135</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0092705392303086</v>
+        <v>0.009270539230308695</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.87618865565114</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H11" t="n">
-        <v>19.21451706968724</v>
+        <v>19.21451706968723</v>
       </c>
       <c r="I11" t="n">
-        <v>72.33176314699065</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J11" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062839</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
-        <v>334.7730322994723</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548413</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184537</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q11" t="n">
-        <v>202.6072676879472</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R11" t="n">
         <v>117.855135640546</v>
       </c>
       <c r="S11" t="n">
-        <v>42.7536489906504</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T11" t="n">
-        <v>8.21301584011287</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1500950924520912</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.00384943023825</v>
+        <v>1.003849430238249</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879941</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916782</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562345</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K12" t="n">
-        <v>162.0996687415862</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L12" t="n">
-        <v>217.9630089646692</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108057</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811315</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
-        <v>128.140499200237</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233628</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S12" t="n">
-        <v>18.64606288183766</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T12" t="n">
-        <v>4.046217659600664</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0660427256735691</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238419</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051981</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I13" t="n">
-        <v>25.309016034957</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J13" t="n">
-        <v>59.50067040624562</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116997</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L13" t="n">
-        <v>125.1220218366647</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M13" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N13" t="n">
         <v>128.7867795998885</v>
       </c>
       <c r="O13" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P13" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.47199114207643</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R13" t="n">
-        <v>37.84111043195201</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S13" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701869</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04590510768130052</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.87618865565114</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H14" t="n">
-        <v>19.21451706968724</v>
+        <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.33176314699064</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J14" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062839</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
-        <v>334.7730322994723</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548413</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184537</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q14" t="n">
-        <v>202.6072676879472</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R14" t="n">
         <v>117.855135640546</v>
       </c>
       <c r="S14" t="n">
-        <v>42.75364899065039</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112869</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1500950924520912</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.00384943023825</v>
+        <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879941</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562344</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K15" t="n">
-        <v>162.0996687415862</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L15" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811315</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233627</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S15" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
-        <v>4.046217659600663</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0660427256735691</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238418</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H16" t="n">
-        <v>7.48253255205198</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I16" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624561</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116997</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M16" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
         <v>128.7867795998885</v>
       </c>
       <c r="O16" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P16" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.47199114207643</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R16" t="n">
-        <v>37.841110431952</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S16" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701869</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04590510768130052</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,31 +32229,31 @@
         <v>1.876188655651139</v>
       </c>
       <c r="H17" t="n">
-        <v>19.21451706968724</v>
+        <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.33176314699062</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J17" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816034</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
@@ -32262,10 +32262,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S17" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U17" t="n">
         <v>0.1500950924520911</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.00384943023825</v>
+        <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562341</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L18" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233626</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S18" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,25 +32384,25 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238416</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051978</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I19" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J19" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M19" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
         <v>128.7867795998885</v>
@@ -32414,19 +32414,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R19" t="n">
-        <v>37.841110431952</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S19" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701868</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.87618865565114</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H20" t="n">
-        <v>19.21451706968724</v>
+        <v>19.21451706968723</v>
       </c>
       <c r="I20" t="n">
-        <v>72.33176314699062</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J20" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062839</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816034</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
-        <v>334.7730322994722</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548412</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184537</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q20" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R20" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S20" t="n">
-        <v>42.75364899065039</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112869</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.00384943023825</v>
+        <v>1.003849430238249</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879939</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562342</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K21" t="n">
-        <v>162.0996687415862</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L21" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233627</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S21" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T21" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06604272567356909</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238417</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051979</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I22" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J22" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116995</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L22" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M22" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O22" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P22" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.47199114207642</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R22" t="n">
-        <v>37.841110431952</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S22" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T22" t="n">
-        <v>3.595900101701868</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04590510768130051</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H23" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I23" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
@@ -32721,7 +32721,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O23" t="n">
         <v>316.116681354841</v>
@@ -32730,19 +32730,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q23" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R23" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S23" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T23" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,25 +32785,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I24" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K24" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L24" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M24" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N24" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O24" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P24" t="n">
         <v>191.6912126917232</v>
@@ -32812,7 +32812,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S24" t="n">
         <v>18.64606288183764</v>
@@ -32821,7 +32821,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H25" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I25" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K25" t="n">
         <v>97.77787936116989</v>
@@ -32879,16 +32879,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N25" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O25" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P25" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R25" t="n">
         <v>37.84111043195198</v>
@@ -32900,7 +32900,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33174,13 +33174,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H29" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I29" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J29" t="n">
         <v>159.239166912571</v>
@@ -33195,7 +33195,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N29" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O29" t="n">
         <v>316.116681354841</v>
@@ -33204,19 +33204,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q29" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R29" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S29" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T29" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,25 +33259,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916786</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K30" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L30" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M30" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N30" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O30" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P30" t="n">
         <v>191.6912126917232</v>
@@ -33286,7 +33286,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S30" t="n">
         <v>18.64606288183764</v>
@@ -33295,7 +33295,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H31" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I31" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K31" t="n">
         <v>97.77787936116989</v>
@@ -33353,16 +33353,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O31" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P31" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R31" t="n">
         <v>37.84111043195198</v>
@@ -33374,7 +33374,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,13 +33411,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H32" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I32" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J32" t="n">
         <v>159.239166912571</v>
@@ -33432,7 +33432,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N32" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O32" t="n">
         <v>316.116681354841</v>
@@ -33441,19 +33441,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q32" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R32" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S32" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T32" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,34 +33496,34 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I33" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K33" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L33" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N33" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O33" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P33" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q33" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002372</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S33" t="n">
         <v>18.64606288183764</v>
@@ -33532,7 +33532,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H34" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I34" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K34" t="n">
         <v>97.77787936116989</v>
@@ -33590,16 +33590,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O34" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P34" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R34" t="n">
         <v>37.84111043195198</v>
@@ -33611,7 +33611,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H35" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I35" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J35" t="n">
         <v>159.239166912571</v>
@@ -33669,7 +33669,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N35" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O35" t="n">
         <v>316.116681354841</v>
@@ -33678,19 +33678,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q35" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R35" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S35" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T35" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,25 +33733,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I36" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K36" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L36" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N36" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O36" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P36" t="n">
         <v>191.6912126917232</v>
@@ -33760,7 +33760,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S36" t="n">
         <v>18.64606288183764</v>
@@ -33769,7 +33769,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H37" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I37" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K37" t="n">
         <v>97.77787936116989</v>
@@ -33827,16 +33827,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N37" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O37" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P37" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R37" t="n">
         <v>37.84111043195198</v>
@@ -33848,7 +33848,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,13 +33885,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H38" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I38" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J38" t="n">
         <v>159.239166912571</v>
@@ -33906,7 +33906,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N38" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O38" t="n">
         <v>316.116681354841</v>
@@ -33915,19 +33915,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q38" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R38" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S38" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T38" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,25 +33970,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I39" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K39" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L39" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M39" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N39" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O39" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P39" t="n">
         <v>191.6912126917232</v>
@@ -33997,7 +33997,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S39" t="n">
         <v>18.64606288183764</v>
@@ -34006,7 +34006,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H40" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I40" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K40" t="n">
         <v>97.77787936116989</v>
@@ -34064,16 +34064,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O40" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P40" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R40" t="n">
         <v>37.84111043195198</v>
@@ -34085,7 +34085,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H41" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I41" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
@@ -34143,7 +34143,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N41" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O41" t="n">
         <v>316.116681354841</v>
@@ -34152,19 +34152,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q41" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R41" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S41" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T41" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34207,34 +34207,34 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I42" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K42" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L42" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N42" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O42" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P42" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q42" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002372</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S42" t="n">
         <v>18.64606288183764</v>
@@ -34243,7 +34243,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H43" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I43" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K43" t="n">
         <v>97.77787936116989</v>
@@ -34301,16 +34301,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O43" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P43" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R43" t="n">
         <v>37.84111043195198</v>
@@ -34322,7 +34322,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H44" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I44" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J44" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K44" t="n">
         <v>238.6582327062837</v>
@@ -34380,28 +34380,28 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N44" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O44" t="n">
         <v>316.116681354841</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184534</v>
       </c>
       <c r="Q44" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R44" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S44" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065035</v>
       </c>
       <c r="T44" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112861</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34441,46 +34441,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H45" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879932</v>
       </c>
       <c r="I45" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K45" t="n">
-        <v>162.0996687415861</v>
+        <v>162.0996687415869</v>
       </c>
       <c r="L45" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M45" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N45" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O45" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P45" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002368</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S45" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T45" t="n">
-        <v>4.046217659600661</v>
+        <v>4.04621765960066</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.841593640823841</v>
       </c>
       <c r="H46" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051974</v>
       </c>
       <c r="I46" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495697</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L46" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M46" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O46" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P46" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207636</v>
       </c>
       <c r="R46" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195197</v>
       </c>
       <c r="S46" t="n">
         <v>14.66668190417548</v>
       </c>
       <c r="T46" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701865</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130047</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35169,34 +35169,34 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>14.1947823964229</v>
+        <v>14.19478239642305</v>
       </c>
       <c r="J8" t="n">
-        <v>32.15835924214581</v>
+        <v>32.15835924214616</v>
       </c>
       <c r="K8" t="n">
-        <v>48.1970443093195</v>
+        <v>48.19704430931999</v>
       </c>
       <c r="L8" t="n">
-        <v>59.79269533990106</v>
+        <v>59.79269533990167</v>
       </c>
       <c r="M8" t="n">
-        <v>66.53089438462936</v>
+        <v>66.53089438463002</v>
       </c>
       <c r="N8" t="n">
-        <v>67.60743381168126</v>
+        <v>67.60743381168197</v>
       </c>
       <c r="O8" t="n">
-        <v>63.83978262725628</v>
+        <v>63.83978262725697</v>
       </c>
       <c r="P8" t="n">
-        <v>54.48577748679207</v>
+        <v>54.48577748679264</v>
       </c>
       <c r="Q8" t="n">
-        <v>40.91654977670095</v>
+        <v>40.9165497767014</v>
       </c>
       <c r="R8" t="n">
-        <v>23.80085166196193</v>
+        <v>23.80085166196221</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>6.97987061388879</v>
+        <v>6.97987061388886</v>
       </c>
       <c r="J9" t="n">
-        <v>51.79011391164865</v>
+        <v>51.79011391164913</v>
       </c>
       <c r="K9" t="n">
-        <v>32.73603775688453</v>
+        <v>32.73603775688485</v>
       </c>
       <c r="L9" t="n">
-        <v>44.01764264211012</v>
+        <v>44.01764264211057</v>
       </c>
       <c r="M9" t="n">
-        <v>51.36651278526818</v>
+        <v>51.3665127852687</v>
       </c>
       <c r="N9" t="n">
-        <v>52.72603153286514</v>
+        <v>52.72603153286565</v>
       </c>
       <c r="O9" t="n">
-        <v>48.23401798619426</v>
+        <v>48.23401798619477</v>
       </c>
       <c r="P9" t="n">
-        <v>38.71205182006241</v>
+        <v>38.71205182006281</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.87798144542921</v>
+        <v>25.8779814454295</v>
       </c>
       <c r="R9" t="n">
-        <v>119.08391054246</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>99.47039137143231</v>
+        <v>99.47039137143244</v>
       </c>
       <c r="K10" t="n">
-        <v>119.08391054246</v>
+        <v>31.94401902424342</v>
       </c>
       <c r="L10" t="n">
-        <v>25.26839976207779</v>
+        <v>25.26839976207805</v>
       </c>
       <c r="M10" t="n">
-        <v>38.0301280289398</v>
+        <v>26.64198465803545</v>
       </c>
       <c r="N10" t="n">
-        <v>26.00849781063079</v>
+        <v>26.00849781063104</v>
       </c>
       <c r="O10" t="n">
-        <v>24.02305732547302</v>
+        <v>24.02305732547325</v>
       </c>
       <c r="P10" t="n">
-        <v>20.55587565333758</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="Q10" t="n">
-        <v>119.08391054246</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785925</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J11" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062839</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766676</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M11" t="n">
-        <v>329.442311281603</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P11" t="n">
-        <v>269.798273918454</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R11" t="n">
-        <v>117.8551356405465</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916782</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562248</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K12" t="n">
-        <v>162.0996687415862</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L12" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108057</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811315</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
@@ -35567,31 +35567,31 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.50067040624561</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116997</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L13" t="n">
-        <v>281.8524450409519</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M13" t="n">
-        <v>590.0818943619345</v>
+        <v>309.1157135712369</v>
       </c>
       <c r="N13" t="n">
-        <v>575.5128433954892</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O13" t="n">
-        <v>542.8637682561043</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P13" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R13" t="n">
-        <v>16.63746735027017</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35643,28 +35643,28 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785924</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J14" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062839</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
-        <v>334.7730322994723</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548414</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916701</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562344</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K15" t="n">
-        <v>162.0996687415862</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L15" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811315</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
@@ -35804,31 +35804,31 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624561</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116997</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L16" t="n">
         <v>547.5562458447062</v>
       </c>
       <c r="M16" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
-        <v>575.5128433954892</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O16" t="n">
-        <v>384.3011685730005</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P16" t="n">
-        <v>452.8039900485103</v>
+        <v>294.2413903654056</v>
       </c>
       <c r="Q16" t="n">
         <v>70.4719911420766</v>
       </c>
       <c r="R16" t="n">
-        <v>16.63746735027017</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35880,28 +35880,28 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785922</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J17" t="n">
-        <v>159.2391669125714</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916773</v>
+        <v>34.56235976916786</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562342</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L18" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811315</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
@@ -36041,31 +36041,31 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>375.3116718572665</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L19" t="n">
-        <v>125.1220218366647</v>
+        <v>281.852445040951</v>
       </c>
       <c r="M19" t="n">
-        <v>131.9236286247773</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N19" t="n">
-        <v>304.5047560030955</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O19" t="n">
-        <v>542.8637682561045</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P19" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
-        <v>240.3636829242305</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R19" t="n">
-        <v>16.63746735027016</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36117,28 +36117,28 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785922</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J20" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K20" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766676</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816031</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184542</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916662</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562353</v>
       </c>
       <c r="K21" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L21" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
         <v>254.3525508108055</v>
@@ -36217,13 +36217,13 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
-        <v>128.1404992002372</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,16 +36278,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624561</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116997</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L22" t="n">
-        <v>125.1220218366646</v>
+        <v>281.8524450409515</v>
       </c>
       <c r="M22" t="n">
-        <v>590.0818943619345</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N22" t="n">
         <v>575.5128433954892</v>
@@ -36296,13 +36296,13 @@
         <v>542.8637682561043</v>
       </c>
       <c r="P22" t="n">
-        <v>258.5173486362908</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207615</v>
       </c>
       <c r="R22" t="n">
-        <v>16.63746735027016</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36354,28 +36354,28 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J23" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766686</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816031</v>
       </c>
       <c r="N23" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q23" t="n">
         <v>202.6072676879471</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916796</v>
       </c>
       <c r="J24" t="n">
         <v>94.84175691562336</v>
       </c>
       <c r="K24" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L24" t="n">
         <v>217.963008964669</v>
@@ -36448,13 +36448,13 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O24" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P24" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q24" t="n">
         <v>128.1404992002369</v>
@@ -36515,16 +36515,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L25" t="n">
-        <v>281.8524450409522</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M25" t="n">
-        <v>590.0818943619345</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N25" t="n">
         <v>575.512843395489</v>
@@ -36533,13 +36533,13 @@
         <v>542.8637682561043</v>
       </c>
       <c r="P25" t="n">
-        <v>101.7869254320035</v>
+        <v>258.5173486362905</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207615</v>
       </c>
       <c r="R25" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L26" t="n">
         <v>296.0766412766673</v>
@@ -36612,7 +36612,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q26" t="n">
         <v>202.6072676879471</v>
@@ -36676,22 +36676,22 @@
         <v>94.84175691562339</v>
       </c>
       <c r="K27" t="n">
-        <v>162.0996687415861</v>
+        <v>162.0996687415862</v>
       </c>
       <c r="L27" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M27" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N27" t="n">
         <v>261.0845059811314</v>
       </c>
       <c r="O27" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P27" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q27" t="n">
         <v>128.1404992002369</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L28" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M28" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N28" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O28" t="n">
-        <v>296.1475206512696</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P28" t="n">
-        <v>452.8039900485103</v>
+        <v>404.8918886914878</v>
       </c>
       <c r="Q28" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R28" t="n">
         <v>16.63746735027015</v>
@@ -36828,13 +36828,13 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J29" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L29" t="n">
         <v>296.0766412766673</v>
@@ -36846,10 +36846,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q29" t="n">
         <v>202.6072676879471</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916786</v>
+        <v>34.56235976916797</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K30" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L30" t="n">
         <v>217.963008964669</v>
@@ -36989,31 +36989,31 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K31" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L31" t="n">
-        <v>375.0226908429307</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M31" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
-        <v>575.5128433954892</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O31" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P31" t="n">
-        <v>101.7869254320035</v>
+        <v>294.2413903654051</v>
       </c>
       <c r="Q31" t="n">
         <v>70.4719911420766</v>
       </c>
       <c r="R31" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J32" t="n">
         <v>159.239166912571</v>
@@ -37083,10 +37083,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q32" t="n">
         <v>202.6072676879471</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K33" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L33" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M33" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O33" t="n">
         <v>238.8413159742734</v>
@@ -37168,7 +37168,7 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q33" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002372</v>
       </c>
       <c r="R33" t="n">
         <v>62.32672164233622</v>
@@ -37226,31 +37226,31 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K34" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L34" t="n">
-        <v>300.8399982398709</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M34" t="n">
-        <v>131.9236286247772</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N34" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O34" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P34" t="n">
-        <v>452.8039900485103</v>
+        <v>258.5173486362896</v>
       </c>
       <c r="Q34" t="n">
-        <v>240.3636829242305</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R34" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J35" t="n">
         <v>159.2391669125709</v>
@@ -37311,19 +37311,19 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816031</v>
       </c>
       <c r="N35" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q35" t="n">
         <v>202.6072676879471</v>
@@ -37381,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
         <v>94.84175691562336</v>
       </c>
       <c r="K36" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L36" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M36" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N36" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O36" t="n">
         <v>238.8413159742734</v>
@@ -37408,7 +37408,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233645</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,31 +37463,31 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L37" t="n">
-        <v>194.3982176018711</v>
+        <v>547.5562458447059</v>
       </c>
       <c r="M37" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N37" t="n">
-        <v>575.512843395489</v>
+        <v>139.4164512162874</v>
       </c>
       <c r="O37" t="n">
-        <v>542.8637682561041</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P37" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q37" t="n">
         <v>70.4719911420766</v>
       </c>
       <c r="R37" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37539,28 +37539,28 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J38" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816031</v>
       </c>
       <c r="N38" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q38" t="n">
         <v>202.6072676879471</v>
@@ -37618,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K39" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L39" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M39" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N39" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O39" t="n">
         <v>238.8413159742734</v>
@@ -37645,7 +37645,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233645</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37721,10 +37721,10 @@
         <v>452.8039900485103</v>
       </c>
       <c r="Q40" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R40" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,16 +37776,16 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062836</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M41" t="n">
         <v>329.4423112816032</v>
@@ -37794,10 +37794,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916776</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J42" t="n">
         <v>94.84175691562336</v>
       </c>
       <c r="K42" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L42" t="n">
         <v>217.9630089646689</v>
@@ -37876,13 +37876,13 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P42" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q42" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002372</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37943,25 +37943,25 @@
         <v>375.3116718572664</v>
       </c>
       <c r="L43" t="n">
-        <v>170.8810658749151</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M43" t="n">
-        <v>590.0818943619341</v>
+        <v>309.1157135712365</v>
       </c>
       <c r="N43" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O43" t="n">
         <v>118.9554357048098</v>
       </c>
       <c r="P43" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q43" t="n">
         <v>240.36368292423</v>
       </c>
       <c r="R43" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,25 +38013,25 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J44" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K44" t="n">
         <v>238.6582327062837</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766671</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816035</v>
       </c>
       <c r="N44" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548407</v>
       </c>
       <c r="P44" t="n">
         <v>269.7982739184536</v>
@@ -38040,7 +38040,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R44" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916786</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K45" t="n">
-        <v>162.0996687415861</v>
+        <v>162.0996687415869</v>
       </c>
       <c r="L45" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M45" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N45" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O45" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P45" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002367</v>
       </c>
       <c r="R45" t="n">
         <v>62.32672164233622</v>
@@ -38177,28 +38177,28 @@
         <v>146.9548978453262</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116988</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L46" t="n">
-        <v>194.3982176018708</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M46" t="n">
-        <v>590.0818943619341</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
-        <v>575.512843395489</v>
+        <v>304.5047560030947</v>
       </c>
       <c r="O46" t="n">
-        <v>542.8637682561041</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P46" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R46" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027013</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
